--- a/src/main/webapp/WEB-INF/resources/Sample.xlsx
+++ b/src/main/webapp/WEB-INF/resources/Sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkumagai\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkumagai\git\Settlement_management_new\src\main\webapp\WEB-INF\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E976D2F5-08DF-4C73-A5DA-3B326A501F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE084AC-D8F8-495B-96A0-970F9B6D1C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="720" windowWidth="16170" windowHeight="8700" xr2:uid="{C97D81E4-BCF9-40A3-8CEF-DA90F2F63590}"/>
   </bookViews>
@@ -38,7 +38,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>ohayou</t>
+    <t>サンプル読み込み完了</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,7 +435,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
